--- a/attendance-files/HRM/HRM (A) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (A) Attendance Sheet.xlsx
@@ -983,6 +983,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -993,9 +996,6 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1617,11 +1617,11 @@
         <v>9</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" ref="E7:E12" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
+        <f t="shared" ref="E7:E8" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F7" s="27">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
@@ -1702,12 +1702,11 @@
       <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E9" s="36">
+        <v>1.0</v>
       </c>
       <c r="F9" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="35"/>
@@ -1746,11 +1745,11 @@
         <v>9</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="1"/>
+        <f>IF(D10&gt;0,COUNTIF(G10:Z10,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F10" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
@@ -1788,12 +1787,11 @@
       <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E11" s="36">
+        <v>1.0</v>
       </c>
       <c r="F11" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="35"/>
@@ -1831,12 +1829,11 @@
       <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E12" s="36">
+        <v>2.0</v>
       </c>
       <c r="F12" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="35"/>
@@ -1861,23 +1858,23 @@
       <c r="AA12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="36">
+      <c r="A13" s="37">
         <v>7.0</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="40">
-        <v>1.0</v>
+      <c r="D13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="36">
+        <v>2.0</v>
       </c>
       <c r="F13" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="35"/>
@@ -1902,7 +1899,7 @@
       <c r="AA13" s="35"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="36">
+      <c r="A14" s="37">
         <v>8.0</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -1914,13 +1911,11 @@
       <c r="D14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="26">
-        <f t="shared" ref="E14:E18" si="3">IF(D14&gt;0,COUNTIF(G14:Z14,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="41">
-        <f>IF(D14&gt;0,COUNTIF(G14:Z14,"P"),"")</f>
-        <v>0</v>
+      <c r="E14" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="33">
+        <v>5.0</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="35"/>
@@ -1946,7 +1941,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30">
-        <f t="shared" ref="A15:A61" si="4">IF(B15&gt;0,A14+1,"")</f>
+        <f t="shared" ref="A15:A61" si="3">IF(B15&gt;0,A14+1,"")</f>
         <v>9</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -1958,12 +1953,11 @@
       <c r="D15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E15" s="36">
+        <v>2.0</v>
       </c>
       <c r="F15" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="35"/>
@@ -1989,7 +1983,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -2001,12 +1995,11 @@
       <c r="D16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E16" s="36">
+        <v>2.0</v>
       </c>
       <c r="F16" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
@@ -2032,7 +2025,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -2044,12 +2037,11 @@
       <c r="D17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E17" s="36">
+        <v>1.0</v>
       </c>
       <c r="F17" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
@@ -2075,7 +2067,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -2088,11 +2080,11 @@
         <v>9</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" si="3"/>
+        <f>IF(D18&gt;0,COUNTIF(G18:Z18,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F18" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="35"/>
@@ -2118,7 +2110,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -2130,11 +2122,11 @@
       <c r="D19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="36">
         <v>1.0</v>
       </c>
       <c r="F19" s="33">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="35"/>
@@ -2160,7 +2152,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -2172,12 +2164,11 @@
       <c r="D20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="26">
-        <f t="shared" ref="E20:E29" si="5">IF(D20&gt;0,COUNTIF(G20:Z20,"A"),"")</f>
-        <v>0</v>
+      <c r="E20" s="36">
+        <v>1.0</v>
       </c>
       <c r="F20" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="35"/>
@@ -2203,7 +2194,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -2215,12 +2206,11 @@
       <c r="D21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E21" s="36">
+        <v>2.0</v>
       </c>
       <c r="F21" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="35"/>
@@ -2246,7 +2236,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -2258,12 +2248,11 @@
       <c r="D22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E22" s="36">
+        <v>1.0</v>
       </c>
       <c r="F22" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="35"/>
@@ -2289,7 +2278,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B23" s="31" t="s">
@@ -2301,12 +2290,11 @@
       <c r="D23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E23" s="36">
+        <v>1.0</v>
       </c>
       <c r="F23" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="35"/>
@@ -2332,7 +2320,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -2344,12 +2332,11 @@
       <c r="D24" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E24" s="36">
+        <v>2.0</v>
       </c>
       <c r="F24" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="35"/>
@@ -2375,7 +2362,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -2387,13 +2374,11 @@
       <c r="D25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="41">
-        <f>IF(D25&gt;0,COUNTIF(G25:Z25,"P"),"")</f>
-        <v>0</v>
+      <c r="E25" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="33">
+        <v>5.0</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="35"/>
@@ -2419,7 +2404,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -2432,11 +2417,11 @@
         <v>9</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E26:E27" si="4">IF(D26&gt;0,COUNTIF(G26:Z26,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F26" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="35"/>
@@ -2462,7 +2447,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -2475,11 +2460,11 @@
         <v>9</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F27" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="35"/>
@@ -2505,7 +2490,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -2517,12 +2502,11 @@
       <c r="D28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E28" s="36">
+        <v>2.0</v>
       </c>
       <c r="F28" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="35"/>
@@ -2548,7 +2532,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -2560,12 +2544,11 @@
       <c r="D29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E29" s="36">
+        <v>1.0</v>
       </c>
       <c r="F29" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
@@ -2591,7 +2574,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -2603,11 +2586,11 @@
       <c r="D30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="40">
-        <v>1.0</v>
+      <c r="E30" s="36">
+        <v>2.0</v>
       </c>
       <c r="F30" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="35"/>
@@ -2633,7 +2616,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B31" s="31" t="s">
@@ -2645,12 +2628,11 @@
       <c r="D31" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="26">
-        <f>IF(D31&gt;0,COUNTIF(G31:Z31,"A"),"")</f>
-        <v>0</v>
+      <c r="E31" s="36">
+        <v>2.0</v>
       </c>
       <c r="F31" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="35"/>
@@ -2676,7 +2658,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -2688,11 +2670,11 @@
       <c r="D32" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="40">
-        <v>1.0</v>
+      <c r="E32" s="36">
+        <v>2.0</v>
       </c>
       <c r="F32" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="35"/>
@@ -2718,7 +2700,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -2730,11 +2712,11 @@
       <c r="D33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="40">
-        <v>1.0</v>
+      <c r="E33" s="36">
+        <v>2.0</v>
       </c>
       <c r="F33" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="35"/>
@@ -2760,7 +2742,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B34" s="31" t="s">
@@ -2773,11 +2755,11 @@
         <v>9</v>
       </c>
       <c r="E34" s="26">
-        <f t="shared" ref="E34:E40" si="6">IF(D34&gt;0,COUNTIF(G34:Z34,"A"),"")</f>
+        <f>IF(D34&gt;0,COUNTIF(G34:Z34,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F34" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="35"/>
@@ -2803,7 +2785,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B35" s="31" t="s">
@@ -2815,13 +2797,11 @@
       <c r="D35" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="41">
-        <f t="shared" ref="F35:F36" si="7">IF(D35&gt;0,COUNTIF(G35:Z35,"P"),"")</f>
-        <v>0</v>
+      <c r="E35" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="33">
+        <v>5.0</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="35"/>
@@ -2847,7 +2827,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -2859,13 +2839,11 @@
       <c r="D36" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="E36" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="F36" s="33">
+        <v>4.0</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="35"/>
@@ -2891,7 +2869,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -2904,11 +2882,11 @@
         <v>9</v>
       </c>
       <c r="E37" s="26">
-        <f t="shared" si="6"/>
+        <f>IF(D37&gt;0,COUNTIF(G37:Z37,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F37" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
@@ -2934,7 +2912,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -2946,12 +2924,11 @@
       <c r="D38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="26">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="E38" s="36">
+        <v>2.0</v>
       </c>
       <c r="F38" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="35"/>
@@ -2977,7 +2954,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -2989,12 +2966,11 @@
       <c r="D39" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="26">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="E39" s="36">
+        <v>1.0</v>
       </c>
       <c r="F39" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="35"/>
@@ -3020,7 +2996,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B40" s="31" t="s">
@@ -3033,11 +3009,11 @@
         <v>9</v>
       </c>
       <c r="E40" s="26">
-        <f t="shared" si="6"/>
+        <f>IF(D40&gt;0,COUNTIF(G40:Z40,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F40" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="35"/>
@@ -3063,7 +3039,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B41" s="31" t="s">
@@ -3075,11 +3051,11 @@
       <c r="D41" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="40">
-        <v>1.0</v>
+      <c r="E41" s="36">
+        <v>2.0</v>
       </c>
       <c r="F41" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="35"/>
@@ -3105,7 +3081,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B42" s="31" t="s">
@@ -3117,11 +3093,11 @@
       <c r="D42" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="40">
-        <v>1.0</v>
+      <c r="E42" s="36">
+        <v>2.0</v>
       </c>
       <c r="F42" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="35"/>
@@ -3147,7 +3123,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B43" s="31" t="s">
@@ -3159,12 +3135,11 @@
       <c r="D43" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="26">
-        <f t="shared" ref="E43:E44" si="8">IF(D43&gt;0,COUNTIF(G43:Z43,"A"),"")</f>
-        <v>0</v>
+      <c r="E43" s="36">
+        <v>1.0</v>
       </c>
       <c r="F43" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G43" s="34"/>
       <c r="H43" s="35"/>
@@ -3190,7 +3165,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -3203,11 +3178,11 @@
         <v>9</v>
       </c>
       <c r="E44" s="26">
-        <f t="shared" si="8"/>
+        <f>IF(D44&gt;0,COUNTIF(G44:Z44,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F44" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="35"/>
@@ -3233,7 +3208,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B45" s="31" t="s">
@@ -3245,11 +3220,11 @@
       <c r="D45" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="40">
-        <v>1.0</v>
+      <c r="E45" s="36">
+        <v>2.0</v>
       </c>
       <c r="F45" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="35"/>
@@ -3275,7 +3250,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -3287,11 +3262,11 @@
       <c r="D46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="36">
         <v>1.0</v>
       </c>
       <c r="F46" s="33">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="35"/>
@@ -3317,7 +3292,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B47" s="31" t="s">
@@ -3330,11 +3305,11 @@
         <v>9</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" ref="E47:E53" si="9">IF(D47&gt;0,COUNTIF(G47:Z47,"A"),"")</f>
+        <f t="shared" ref="E47:E49" si="5">IF(D47&gt;0,COUNTIF(G47:Z47,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F47" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="35"/>
@@ -3360,7 +3335,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -3373,11 +3348,11 @@
         <v>9</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F48" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="35"/>
@@ -3403,7 +3378,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B49" s="31" t="s">
@@ -3416,11 +3391,11 @@
         <v>9</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F49" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="35"/>
@@ -3446,7 +3421,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B50" s="31" t="s">
@@ -3458,12 +3433,11 @@
       <c r="D50" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="E50" s="36">
+        <v>1.0</v>
       </c>
       <c r="F50" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="35"/>
@@ -3489,7 +3463,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B51" s="31" t="s">
@@ -3501,12 +3475,11 @@
       <c r="D51" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="E51" s="36">
+        <v>2.0</v>
       </c>
       <c r="F51" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G51" s="34"/>
       <c r="H51" s="35"/>
@@ -3532,7 +3505,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B52" s="31" t="s">
@@ -3545,11 +3518,11 @@
         <v>9</v>
       </c>
       <c r="E52" s="26">
-        <f t="shared" si="9"/>
+        <f>IF(D52&gt;0,COUNTIF(G52:Z52,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F52" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G52" s="34"/>
       <c r="H52" s="35"/>
@@ -3575,7 +3548,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B53" s="31" t="s">
@@ -3587,12 +3560,11 @@
       <c r="D53" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="E53" s="36">
+        <v>2.0</v>
       </c>
       <c r="F53" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="35"/>
@@ -3618,7 +3590,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -3630,11 +3602,11 @@
       <c r="D54" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="36">
         <v>1.0</v>
       </c>
       <c r="F54" s="33">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="35"/>
@@ -3660,7 +3632,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B55" s="31" t="s">
@@ -3672,11 +3644,11 @@
       <c r="D55" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="40">
-        <v>1.0</v>
+      <c r="E55" s="36">
+        <v>2.0</v>
       </c>
       <c r="F55" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="35"/>
@@ -3702,7 +3674,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -3714,12 +3686,11 @@
       <c r="D56" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="26">
-        <f t="shared" ref="E56:E61" si="10">IF(D56&gt;0,COUNTIF(G56:Z56,"A"),"")</f>
-        <v>0</v>
+      <c r="E56" s="36">
+        <v>2.0</v>
       </c>
       <c r="F56" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="35"/>
@@ -3745,7 +3716,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B57" s="31" t="s">
@@ -3757,12 +3728,11 @@
       <c r="D57" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="26">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="E57" s="36">
+        <v>1.0</v>
       </c>
       <c r="F57" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="35"/>
@@ -3788,7 +3758,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B58" s="31" t="s">
@@ -3800,12 +3770,11 @@
       <c r="D58" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="26">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="E58" s="36">
+        <v>1.0</v>
       </c>
       <c r="F58" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="35"/>
@@ -3831,7 +3800,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B59" s="31" t="s">
@@ -3844,11 +3813,11 @@
         <v>9</v>
       </c>
       <c r="E59" s="26">
-        <f t="shared" si="10"/>
+        <f>IF(D59&gt;0,COUNTIF(G59:Z59,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F59" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="35"/>
@@ -3874,7 +3843,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B60" s="31" t="s">
@@ -3886,12 +3855,11 @@
       <c r="D60" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="26">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="E60" s="36">
+        <v>1.0</v>
       </c>
       <c r="F60" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G60" s="34"/>
       <c r="H60" s="35"/>
@@ -3917,7 +3885,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B61" s="31" t="s">
@@ -3930,11 +3898,11 @@
         <v>9</v>
       </c>
       <c r="E61" s="26">
-        <f t="shared" si="10"/>
+        <f>IF(D61&gt;0,COUNTIF(G61:Z61,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F61" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G61" s="34"/>
       <c r="H61" s="35"/>
@@ -3959,23 +3927,23 @@
       <c r="AA61" s="35"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="36">
+      <c r="A62" s="37">
         <v>56.0</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="40">
-        <v>0.0</v>
+      <c r="D62" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="36">
+        <v>2.0</v>
       </c>
       <c r="F62" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G62" s="34"/>
       <c r="H62" s="35"/>
@@ -4000,7 +3968,7 @@
       <c r="AA62" s="35"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="36">
+      <c r="A63" s="37">
         <v>57.0</v>
       </c>
       <c r="B63" s="31" t="s">
@@ -4012,12 +3980,11 @@
       <c r="D63" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="26">
-        <f t="shared" ref="E63:E67" si="11">IF(D63&gt;0,COUNTIF(G63:Z63,"A"),"")</f>
-        <v>0</v>
+      <c r="E63" s="36">
+        <v>1.0</v>
       </c>
       <c r="F63" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G63" s="34"/>
       <c r="H63" s="35"/>
@@ -4043,7 +4010,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30">
-        <f t="shared" ref="A64:A97" si="12">IF(B64&gt;0,A63+1,"")</f>
+        <f t="shared" ref="A64:A97" si="6">IF(B64&gt;0,A63+1,"")</f>
         <v>58</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -4055,12 +4022,11 @@
       <c r="D64" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="E64" s="36">
+        <v>2.0</v>
       </c>
       <c r="F64" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G64" s="34"/>
       <c r="H64" s="35"/>
@@ -4086,7 +4052,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="B65" s="31" t="s">
@@ -4098,12 +4064,11 @@
       <c r="D65" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="E65" s="36">
+        <v>1.0</v>
       </c>
       <c r="F65" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G65" s="34"/>
       <c r="H65" s="35"/>
@@ -4129,7 +4094,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="B66" s="31" t="s">
@@ -4141,12 +4106,11 @@
       <c r="D66" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="E66" s="36">
+        <v>1.0</v>
       </c>
       <c r="F66" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G66" s="34"/>
       <c r="H66" s="35"/>
@@ -4172,7 +4136,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="B67" s="31" t="s">
@@ -4184,13 +4148,11 @@
       <c r="D67" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="41">
-        <f>IF(D67&gt;0,COUNTIF(G67:Z67,"P"),"")</f>
-        <v>0</v>
+      <c r="E67" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="F67" s="33">
+        <v>5.0</v>
       </c>
       <c r="G67" s="34"/>
       <c r="H67" s="35"/>
@@ -4216,7 +4178,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="B68" s="31" t="s">
@@ -4228,11 +4190,11 @@
       <c r="D68" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="40">
-        <v>1.0</v>
+      <c r="E68" s="36">
+        <v>2.0</v>
       </c>
       <c r="F68" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G68" s="34"/>
       <c r="H68" s="35"/>
@@ -4258,7 +4220,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="B69" s="31" t="s">
@@ -4270,12 +4232,11 @@
       <c r="D69" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="26">
-        <f t="shared" ref="E69:E77" si="13">IF(D69&gt;0,COUNTIF(G69:Z69,"A"),"")</f>
-        <v>0</v>
+      <c r="E69" s="36">
+        <v>2.0</v>
       </c>
       <c r="F69" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="35"/>
@@ -4301,7 +4262,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="B70" s="31" t="s">
@@ -4313,12 +4274,11 @@
       <c r="D70" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E70" s="36">
+        <v>1.0</v>
       </c>
       <c r="F70" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G70" s="34"/>
       <c r="H70" s="35"/>
@@ -4344,7 +4304,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="B71" s="31" t="s">
@@ -4356,12 +4316,11 @@
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E71" s="36">
+        <v>1.0</v>
       </c>
       <c r="F71" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="35"/>
@@ -4387,7 +4346,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="B72" s="31" t="s">
@@ -4399,12 +4358,11 @@
       <c r="D72" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E72" s="36">
+        <v>1.0</v>
       </c>
       <c r="F72" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G72" s="34"/>
       <c r="H72" s="35"/>
@@ -4430,7 +4388,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="B73" s="31" t="s">
@@ -4442,12 +4400,11 @@
       <c r="D73" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E73" s="36">
+        <v>2.0</v>
       </c>
       <c r="F73" s="33">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
@@ -4473,7 +4430,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -4485,12 +4442,11 @@
       <c r="D74" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E74" s="36">
+        <v>1.0</v>
       </c>
       <c r="F74" s="33">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="35"/>
@@ -4516,7 +4472,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B75" s="31" t="s">
@@ -4529,11 +4485,11 @@
         <v>9</v>
       </c>
       <c r="E75" s="26">
-        <f t="shared" si="13"/>
+        <f>IF(D75&gt;0,COUNTIF(G75:Z75,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F75" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G75" s="34"/>
       <c r="H75" s="35"/>
@@ -4559,7 +4515,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B76" s="31" t="s">
@@ -4571,13 +4527,11 @@
       <c r="D76" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="41">
-        <f t="shared" ref="F76:F77" si="14">IF(D76&gt;0,COUNTIF(G76:Z76,"P"),"")</f>
-        <v>0</v>
+      <c r="E76" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="F76" s="33">
+        <v>5.0</v>
       </c>
       <c r="G76" s="34"/>
       <c r="H76" s="35"/>
@@ -4603,7 +4557,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B77" s="31" t="s">
@@ -4615,13 +4569,11 @@
       <c r="D77" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="41">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="E77" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="F77" s="33">
+        <v>3.0</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="35"/>
@@ -4647,7 +4599,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="B78" s="31" t="s">
@@ -4659,11 +4611,11 @@
       <c r="D78" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="40">
-        <v>1.0</v>
+      <c r="E78" s="36">
+        <v>2.0</v>
       </c>
       <c r="F78" s="33">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="35"/>
@@ -4689,7 +4641,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="B79" s="31" t="s">
@@ -4702,11 +4654,11 @@
         <v>9</v>
       </c>
       <c r="E79" s="26">
-        <f t="shared" ref="E79:E97" si="15">IF(D79&gt;0,COUNTIF(G79:Z79,"A"),"")</f>
+        <f t="shared" ref="E79:E80" si="7">IF(D79&gt;0,COUNTIF(G79:Z79,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F79" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G79" s="34"/>
       <c r="H79" s="35"/>
@@ -4732,7 +4684,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="B80" s="31" t="s">
@@ -4745,11 +4697,11 @@
         <v>9</v>
       </c>
       <c r="E80" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F80" s="33">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G80" s="34"/>
       <c r="H80" s="35"/>
@@ -4775,7 +4727,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -4787,13 +4739,11 @@
       <c r="D81" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="41">
-        <f t="shared" ref="F81:F97" si="16">IF(D81&gt;0,COUNTIF(G81:Z81,"P"),"")</f>
-        <v>0</v>
+      <c r="E81" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="F81" s="33">
+        <v>4.0</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="35"/>
@@ -4819,18 +4769,18 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E82:E97" si="8">IF(D82&gt;0,COUNTIF(G82:Z82,"A"),"")</f>
         <v/>
       </c>
       <c r="F82" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F82:F97" si="9">IF(D82&gt;0,COUNTIF(G82:Z82,"P"),"")</f>
         <v/>
       </c>
       <c r="G82" s="34"/>
@@ -4857,18 +4807,18 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
       <c r="D83" s="26"/>
       <c r="E83" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F83" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G83" s="34"/>
@@ -4895,18 +4845,18 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
       <c r="D84" s="26"/>
       <c r="E84" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F84" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G84" s="34"/>
@@ -4933,18 +4883,18 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F85" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G85" s="34"/>
@@ -4971,18 +4921,18 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B86" s="31"/>
       <c r="C86" s="32"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F86" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G86" s="34"/>
@@ -5009,18 +4959,18 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F87" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G87" s="34"/>
@@ -5047,18 +4997,18 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
       <c r="D88" s="26"/>
       <c r="E88" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F88" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G88" s="34"/>
@@ -5085,18 +5035,18 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
       <c r="D89" s="26"/>
       <c r="E89" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F89" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G89" s="34"/>
@@ -5123,18 +5073,18 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
       <c r="D90" s="26"/>
       <c r="E90" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F90" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G90" s="34"/>
@@ -5161,18 +5111,18 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F91" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G91" s="34"/>
@@ -5199,18 +5149,18 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F92" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G92" s="34"/>
@@ -5237,18 +5187,18 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F93" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G93" s="34"/>
@@ -5275,18 +5225,18 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F94" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G94" s="34"/>
@@ -5313,18 +5263,18 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
       <c r="D95" s="26"/>
       <c r="E95" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F95" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G95" s="34"/>
@@ -5351,18 +5301,18 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
       <c r="D96" s="26"/>
       <c r="E96" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F96" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G96" s="34"/>
@@ -5389,18 +5339,18 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="26"/>
       <c r="E97" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F97" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G97" s="34"/>

--- a/attendance-files/HRM/HRM (A) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (A) Attendance Sheet.xlsx
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="27">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
@@ -1706,7 +1706,7 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="35"/>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
@@ -1791,7 +1791,7 @@
         <v>1.0</v>
       </c>
       <c r="F11" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="35"/>
@@ -1833,7 +1833,7 @@
         <v>2.0</v>
       </c>
       <c r="F12" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="35"/>
@@ -1874,7 +1874,7 @@
         <v>2.0</v>
       </c>
       <c r="F13" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="35"/>
@@ -1915,7 +1915,7 @@
         <v>2.0</v>
       </c>
       <c r="F14" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="35"/>
@@ -1957,7 +1957,7 @@
         <v>2.0</v>
       </c>
       <c r="F15" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="35"/>
@@ -1999,7 +1999,7 @@
         <v>2.0</v>
       </c>
       <c r="F16" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
@@ -2041,7 +2041,7 @@
         <v>1.0</v>
       </c>
       <c r="F17" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="35"/>
@@ -2126,7 +2126,7 @@
         <v>1.0</v>
       </c>
       <c r="F19" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="35"/>
@@ -2168,7 +2168,7 @@
         <v>1.0</v>
       </c>
       <c r="F20" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="35"/>
@@ -2210,7 +2210,7 @@
         <v>2.0</v>
       </c>
       <c r="F21" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="35"/>
@@ -2249,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22" s="33">
         <v>6.0</v>
@@ -2294,7 +2294,7 @@
         <v>1.0</v>
       </c>
       <c r="F23" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="35"/>
@@ -2336,7 +2336,7 @@
         <v>2.0</v>
       </c>
       <c r="F24" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="35"/>
@@ -2378,7 +2378,7 @@
         <v>2.0</v>
       </c>
       <c r="F25" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="35"/>
@@ -2416,9 +2416,8 @@
       <c r="D26" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="26">
-        <f t="shared" ref="E26:E27" si="4">IF(D26&gt;0,COUNTIF(G26:Z26,"A"),"")</f>
-        <v>0</v>
+      <c r="E26" s="36">
+        <v>1.0</v>
       </c>
       <c r="F26" s="33">
         <v>7.0</v>
@@ -2459,9 +2458,8 @@
       <c r="D27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="E27" s="36">
+        <v>1.0</v>
       </c>
       <c r="F27" s="33">
         <v>7.0</v>
@@ -2506,7 +2504,7 @@
         <v>2.0</v>
       </c>
       <c r="F28" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="35"/>
@@ -2548,7 +2546,7 @@
         <v>1.0</v>
       </c>
       <c r="F29" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
@@ -2590,7 +2588,7 @@
         <v>2.0</v>
       </c>
       <c r="F30" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="35"/>
@@ -2632,7 +2630,7 @@
         <v>2.0</v>
       </c>
       <c r="F31" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="35"/>
@@ -2674,7 +2672,7 @@
         <v>2.0</v>
       </c>
       <c r="F32" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="35"/>
@@ -2716,7 +2714,7 @@
         <v>2.0</v>
       </c>
       <c r="F33" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="35"/>
@@ -2759,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="35"/>
@@ -2801,7 +2799,7 @@
         <v>2.0</v>
       </c>
       <c r="F35" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="35"/>
@@ -2843,7 +2841,7 @@
         <v>3.0</v>
       </c>
       <c r="F36" s="33">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="35"/>
@@ -2886,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
@@ -2928,7 +2926,7 @@
         <v>2.0</v>
       </c>
       <c r="F38" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="35"/>
@@ -2970,7 +2968,7 @@
         <v>1.0</v>
       </c>
       <c r="F39" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="35"/>
@@ -3013,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="35"/>
@@ -3055,7 +3053,7 @@
         <v>2.0</v>
       </c>
       <c r="F41" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="35"/>
@@ -3097,7 +3095,7 @@
         <v>2.0</v>
       </c>
       <c r="F42" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="35"/>
@@ -3139,7 +3137,7 @@
         <v>1.0</v>
       </c>
       <c r="F43" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G43" s="34"/>
       <c r="H43" s="35"/>
@@ -3182,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="35"/>
@@ -3224,7 +3222,7 @@
         <v>2.0</v>
       </c>
       <c r="F45" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="35"/>
@@ -3266,7 +3264,7 @@
         <v>1.0</v>
       </c>
       <c r="F46" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="35"/>
@@ -3305,11 +3303,11 @@
         <v>9</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" ref="E47:E49" si="5">IF(D47&gt;0,COUNTIF(G47:Z47,"A"),"")</f>
+        <f t="shared" ref="E47:E49" si="4">IF(D47&gt;0,COUNTIF(G47:Z47,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F47" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="35"/>
@@ -3348,11 +3346,11 @@
         <v>9</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="35"/>
@@ -3391,11 +3389,11 @@
         <v>9</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="35"/>
@@ -3437,7 +3435,7 @@
         <v>1.0</v>
       </c>
       <c r="F50" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="35"/>
@@ -3479,7 +3477,7 @@
         <v>2.0</v>
       </c>
       <c r="F51" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G51" s="34"/>
       <c r="H51" s="35"/>
@@ -3522,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G52" s="34"/>
       <c r="H52" s="35"/>
@@ -3564,7 +3562,7 @@
         <v>2.0</v>
       </c>
       <c r="F53" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="35"/>
@@ -3606,7 +3604,7 @@
         <v>1.0</v>
       </c>
       <c r="F54" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="35"/>
@@ -3648,7 +3646,7 @@
         <v>2.0</v>
       </c>
       <c r="F55" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="35"/>
@@ -3690,7 +3688,7 @@
         <v>2.0</v>
       </c>
       <c r="F56" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="35"/>
@@ -3732,7 +3730,7 @@
         <v>1.0</v>
       </c>
       <c r="F57" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="35"/>
@@ -3774,7 +3772,7 @@
         <v>1.0</v>
       </c>
       <c r="F58" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="35"/>
@@ -3817,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="35"/>
@@ -3859,7 +3857,7 @@
         <v>1.0</v>
       </c>
       <c r="F60" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G60" s="34"/>
       <c r="H60" s="35"/>
@@ -3897,9 +3895,8 @@
       <c r="D61" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="26">
-        <f>IF(D61&gt;0,COUNTIF(G61:Z61,"A"),"")</f>
-        <v>0</v>
+      <c r="E61" s="36">
+        <v>1.0</v>
       </c>
       <c r="F61" s="33">
         <v>7.0</v>
@@ -3943,7 +3940,7 @@
         <v>2.0</v>
       </c>
       <c r="F62" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G62" s="34"/>
       <c r="H62" s="35"/>
@@ -3981,7 +3978,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F63" s="33">
         <v>6.0</v>
@@ -4010,7 +4007,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30">
-        <f t="shared" ref="A64:A97" si="6">IF(B64&gt;0,A63+1,"")</f>
+        <f t="shared" ref="A64:A97" si="5">IF(B64&gt;0,A63+1,"")</f>
         <v>58</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -4026,7 +4023,7 @@
         <v>2.0</v>
       </c>
       <c r="F64" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G64" s="34"/>
       <c r="H64" s="35"/>
@@ -4052,7 +4049,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="B65" s="31" t="s">
@@ -4065,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F65" s="33">
         <v>6.0</v>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="B66" s="31" t="s">
@@ -4110,7 +4107,7 @@
         <v>1.0</v>
       </c>
       <c r="F66" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G66" s="34"/>
       <c r="H66" s="35"/>
@@ -4136,7 +4133,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="B67" s="31" t="s">
@@ -4152,7 +4149,7 @@
         <v>2.0</v>
       </c>
       <c r="F67" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G67" s="34"/>
       <c r="H67" s="35"/>
@@ -4178,7 +4175,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="B68" s="31" t="s">
@@ -4194,7 +4191,7 @@
         <v>2.0</v>
       </c>
       <c r="F68" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G68" s="34"/>
       <c r="H68" s="35"/>
@@ -4220,7 +4217,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="B69" s="31" t="s">
@@ -4236,7 +4233,7 @@
         <v>2.0</v>
       </c>
       <c r="F69" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="35"/>
@@ -4262,7 +4259,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="B70" s="31" t="s">
@@ -4275,7 +4272,7 @@
         <v>9</v>
       </c>
       <c r="E70" s="36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F70" s="33">
         <v>6.0</v>
@@ -4304,7 +4301,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="B71" s="31" t="s">
@@ -4320,7 +4317,7 @@
         <v>1.0</v>
       </c>
       <c r="F71" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="35"/>
@@ -4346,7 +4343,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="B72" s="31" t="s">
@@ -4362,7 +4359,7 @@
         <v>1.0</v>
       </c>
       <c r="F72" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G72" s="34"/>
       <c r="H72" s="35"/>
@@ -4388,7 +4385,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="B73" s="31" t="s">
@@ -4404,7 +4401,7 @@
         <v>2.0</v>
       </c>
       <c r="F73" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -4446,7 +4443,7 @@
         <v>1.0</v>
       </c>
       <c r="F74" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="35"/>
@@ -4472,7 +4469,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B75" s="31" t="s">
@@ -4489,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G75" s="34"/>
       <c r="H75" s="35"/>
@@ -4515,7 +4512,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B76" s="31" t="s">
@@ -4531,7 +4528,7 @@
         <v>2.0</v>
       </c>
       <c r="F76" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G76" s="34"/>
       <c r="H76" s="35"/>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B77" s="31" t="s">
@@ -4573,7 +4570,7 @@
         <v>4.0</v>
       </c>
       <c r="F77" s="33">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="35"/>
@@ -4599,7 +4596,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B78" s="31" t="s">
@@ -4615,7 +4612,7 @@
         <v>2.0</v>
       </c>
       <c r="F78" s="33">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="35"/>
@@ -4641,7 +4638,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B79" s="31" t="s">
@@ -4654,11 +4651,11 @@
         <v>9</v>
       </c>
       <c r="E79" s="26">
-        <f t="shared" ref="E79:E80" si="7">IF(D79&gt;0,COUNTIF(G79:Z79,"A"),"")</f>
+        <f t="shared" ref="E79:E80" si="6">IF(D79&gt;0,COUNTIF(G79:Z79,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F79" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G79" s="34"/>
       <c r="H79" s="35"/>
@@ -4684,7 +4681,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B80" s="31" t="s">
@@ -4697,11 +4694,11 @@
         <v>9</v>
       </c>
       <c r="E80" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G80" s="34"/>
       <c r="H80" s="35"/>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -4743,7 +4740,7 @@
         <v>3.0</v>
       </c>
       <c r="F81" s="33">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="35"/>
@@ -4769,18 +4766,18 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26" t="str">
-        <f t="shared" ref="E82:E97" si="8">IF(D82&gt;0,COUNTIF(G82:Z82,"A"),"")</f>
+        <f t="shared" ref="E82:E97" si="7">IF(D82&gt;0,COUNTIF(G82:Z82,"A"),"")</f>
         <v/>
       </c>
       <c r="F82" s="41" t="str">
-        <f t="shared" ref="F82:F97" si="9">IF(D82&gt;0,COUNTIF(G82:Z82,"P"),"")</f>
+        <f t="shared" ref="F82:F97" si="8">IF(D82&gt;0,COUNTIF(G82:Z82,"P"),"")</f>
         <v/>
       </c>
       <c r="G82" s="34"/>
@@ -4807,18 +4804,18 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
       <c r="D83" s="26"/>
       <c r="E83" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F83" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F83" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G83" s="34"/>
@@ -4845,18 +4842,18 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
       <c r="D84" s="26"/>
       <c r="E84" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F84" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F84" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G84" s="34"/>
@@ -4883,18 +4880,18 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F85" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F85" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G85" s="34"/>
@@ -4921,18 +4918,18 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B86" s="31"/>
       <c r="C86" s="32"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F86" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F86" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G86" s="34"/>
@@ -4959,18 +4956,18 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F87" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F87" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G87" s="34"/>
@@ -4997,18 +4994,18 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
       <c r="D88" s="26"/>
       <c r="E88" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F88" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F88" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G88" s="34"/>
@@ -5035,18 +5032,18 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
       <c r="D89" s="26"/>
       <c r="E89" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F89" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F89" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G89" s="34"/>
@@ -5073,18 +5070,18 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
       <c r="D90" s="26"/>
       <c r="E90" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F90" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F90" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G90" s="34"/>
@@ -5111,18 +5108,18 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F91" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F91" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G91" s="34"/>
@@ -5149,18 +5146,18 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F92" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F92" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G92" s="34"/>
@@ -5187,18 +5184,18 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F93" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F93" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G93" s="34"/>
@@ -5225,18 +5222,18 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F94" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F94" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G94" s="34"/>
@@ -5263,18 +5260,18 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
       <c r="D95" s="26"/>
       <c r="E95" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F95" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F95" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G95" s="34"/>
@@ -5301,18 +5298,18 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
       <c r="D96" s="26"/>
       <c r="E96" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F96" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F96" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G96" s="34"/>
@@ -5339,18 +5336,18 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="26"/>
       <c r="E97" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F97" s="41" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F97" s="41" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G97" s="34"/>

--- a/attendance-files/HRM/HRM (A) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (A) Attendance Sheet.xlsx
@@ -962,7 +962,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -983,9 +983,6 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -997,6 +994,9 @@
     </xf>
     <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1617,11 +1617,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" ref="E7:E8" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="27">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
@@ -1647,7 +1646,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="30">
-        <f t="shared" ref="A8:A12" si="2">IF(B8&gt;0,A7+1,"")</f>
+        <f t="shared" ref="A8:A12" si="1">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -1660,8 +1659,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" s="33">
         <v>8.0</v>
@@ -1690,7 +1688,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -1702,11 +1700,11 @@
       <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="26">
         <v>1.0</v>
       </c>
       <c r="F9" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="35"/>
@@ -1732,7 +1730,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -1745,11 +1743,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="26">
-        <f>IF(D10&gt;0,COUNTIF(G10:Z10,"A"),"")</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -1787,11 +1784,11 @@
       <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="26">
         <v>1.0</v>
       </c>
       <c r="F11" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="35"/>
@@ -1817,7 +1814,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -1829,11 +1826,11 @@
       <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="26">
         <v>2.0</v>
       </c>
       <c r="F12" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="35"/>
@@ -1858,23 +1855,23 @@
       <c r="AA12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="37">
+      <c r="A13" s="36">
         <v>7.0</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="D13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="26">
         <v>2.0</v>
       </c>
       <c r="F13" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="35"/>
@@ -1899,7 +1896,7 @@
       <c r="AA13" s="35"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="37">
+      <c r="A14" s="36">
         <v>8.0</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -1911,11 +1908,11 @@
       <c r="D14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="26">
         <v>2.0</v>
       </c>
       <c r="F14" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="35"/>
@@ -1941,7 +1938,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30">
-        <f t="shared" ref="A15:A61" si="3">IF(B15&gt;0,A14+1,"")</f>
+        <f t="shared" ref="A15:A61" si="2">IF(B15&gt;0,A14+1,"")</f>
         <v>9</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -1953,11 +1950,11 @@
       <c r="D15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="26">
         <v>2.0</v>
       </c>
       <c r="F15" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="35"/>
@@ -1983,7 +1980,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -1995,11 +1992,11 @@
       <c r="D16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="26">
         <v>2.0</v>
       </c>
       <c r="F16" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
@@ -2025,7 +2022,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -2037,11 +2034,11 @@
       <c r="D17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="26">
         <v>1.0</v>
       </c>
       <c r="F17" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -2080,8 +2077,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="26">
-        <f>IF(D18&gt;0,COUNTIF(G18:Z18,"A"),"")</f>
-        <v>0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" s="33">
         <v>8.0</v>
@@ -2110,7 +2106,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -2122,11 +2118,11 @@
       <c r="D19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="36">
-        <v>1.0</v>
+      <c r="E19" s="26">
+        <v>2.0</v>
       </c>
       <c r="F19" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="35"/>
@@ -2152,7 +2148,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -2164,11 +2160,11 @@
       <c r="D20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="36">
-        <v>1.0</v>
+      <c r="E20" s="26">
+        <v>2.0</v>
       </c>
       <c r="F20" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="35"/>
@@ -2194,7 +2190,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -2206,11 +2202,11 @@
       <c r="D21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="26">
         <v>2.0</v>
       </c>
       <c r="F21" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="35"/>
@@ -2236,7 +2232,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -2248,11 +2244,11 @@
       <c r="D22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="26">
         <v>2.0</v>
       </c>
       <c r="F22" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="35"/>
@@ -2278,7 +2274,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B23" s="31" t="s">
@@ -2290,11 +2286,11 @@
       <c r="D23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="36">
-        <v>1.0</v>
+      <c r="E23" s="26">
+        <v>2.0</v>
       </c>
       <c r="F23" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="35"/>
@@ -2320,7 +2316,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -2332,11 +2328,11 @@
       <c r="D24" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="26">
         <v>2.0</v>
       </c>
       <c r="F24" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="35"/>
@@ -2362,7 +2358,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -2374,11 +2370,11 @@
       <c r="D25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="26">
         <v>2.0</v>
       </c>
       <c r="F25" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="35"/>
@@ -2404,7 +2400,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -2416,11 +2412,11 @@
       <c r="D26" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="36">
-        <v>1.0</v>
+      <c r="E26" s="26">
+        <v>2.0</v>
       </c>
       <c r="F26" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="35"/>
@@ -2446,7 +2442,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -2458,11 +2454,11 @@
       <c r="D27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="26">
         <v>1.0</v>
       </c>
       <c r="F27" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="35"/>
@@ -2488,7 +2484,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -2500,11 +2496,11 @@
       <c r="D28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="26">
         <v>2.0</v>
       </c>
       <c r="F28" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="35"/>
@@ -2530,7 +2526,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -2542,11 +2538,11 @@
       <c r="D29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="36">
-        <v>1.0</v>
+      <c r="E29" s="26">
+        <v>2.0</v>
       </c>
       <c r="F29" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
@@ -2572,7 +2568,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -2584,11 +2580,11 @@
       <c r="D30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="26">
         <v>2.0</v>
       </c>
       <c r="F30" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="35"/>
@@ -2614,7 +2610,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B31" s="31" t="s">
@@ -2626,11 +2622,11 @@
       <c r="D31" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="26">
         <v>2.0</v>
       </c>
       <c r="F31" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="35"/>
@@ -2656,7 +2652,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -2668,11 +2664,11 @@
       <c r="D32" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="26">
         <v>2.0</v>
       </c>
       <c r="F32" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="35"/>
@@ -2698,7 +2694,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -2710,11 +2706,11 @@
       <c r="D33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="26">
         <v>2.0</v>
       </c>
       <c r="F33" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="35"/>
@@ -2740,7 +2736,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B34" s="31" t="s">
@@ -2753,8 +2749,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="26">
-        <f>IF(D34&gt;0,COUNTIF(G34:Z34,"A"),"")</f>
-        <v>0</v>
+        <v>2.0</v>
       </c>
       <c r="F34" s="33">
         <v>8.0</v>
@@ -2783,7 +2778,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B35" s="31" t="s">
@@ -2795,11 +2790,11 @@
       <c r="D35" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="26">
         <v>2.0</v>
       </c>
       <c r="F35" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="35"/>
@@ -2825,7 +2820,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -2837,11 +2832,11 @@
       <c r="D36" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="26">
         <v>3.0</v>
       </c>
       <c r="F36" s="33">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="35"/>
@@ -2867,7 +2862,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -2880,8 +2875,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="26">
-        <f>IF(D37&gt;0,COUNTIF(G37:Z37,"A"),"")</f>
-        <v>0</v>
+        <v>2.0</v>
       </c>
       <c r="F37" s="33">
         <v>8.0</v>
@@ -2910,7 +2904,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -2922,11 +2916,11 @@
       <c r="D38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="26">
         <v>2.0</v>
       </c>
       <c r="F38" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="35"/>
@@ -2952,7 +2946,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -2964,11 +2958,11 @@
       <c r="D39" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="36">
-        <v>1.0</v>
+      <c r="E39" s="26">
+        <v>2.0</v>
       </c>
       <c r="F39" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="35"/>
@@ -2994,7 +2988,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B40" s="31" t="s">
@@ -3006,12 +3000,12 @@
       <c r="D40" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="40">
         <f>IF(D40&gt;0,COUNTIF(G40:Z40,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F40" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="35"/>
@@ -3037,7 +3031,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B41" s="31" t="s">
@@ -3049,11 +3043,11 @@
       <c r="D41" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="26">
         <v>2.0</v>
       </c>
       <c r="F41" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="35"/>
@@ -3079,7 +3073,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B42" s="31" t="s">
@@ -3091,11 +3085,11 @@
       <c r="D42" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="26">
         <v>2.0</v>
       </c>
       <c r="F42" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="35"/>
@@ -3121,7 +3115,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B43" s="31" t="s">
@@ -3133,11 +3127,11 @@
       <c r="D43" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="26">
         <v>1.0</v>
       </c>
       <c r="F43" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G43" s="34"/>
       <c r="H43" s="35"/>
@@ -3163,7 +3157,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -3175,12 +3169,12 @@
       <c r="D44" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="40">
         <f>IF(D44&gt;0,COUNTIF(G44:Z44,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F44" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="35"/>
@@ -3206,7 +3200,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B45" s="31" t="s">
@@ -3218,11 +3212,11 @@
       <c r="D45" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="26">
         <v>2.0</v>
       </c>
       <c r="F45" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="35"/>
@@ -3248,7 +3242,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -3260,11 +3254,11 @@
       <c r="D46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="26">
         <v>1.0</v>
       </c>
       <c r="F46" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="35"/>
@@ -3290,7 +3284,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B47" s="31" t="s">
@@ -3303,8 +3297,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" ref="E47:E49" si="4">IF(D47&gt;0,COUNTIF(G47:Z47,"A"),"")</f>
-        <v>0</v>
+        <v>2.0</v>
       </c>
       <c r="F47" s="33">
         <v>8.0</v>
@@ -3333,7 +3326,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -3346,8 +3339,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.0</v>
       </c>
       <c r="F48" s="33">
         <v>8.0</v>
@@ -3376,7 +3368,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B49" s="31" t="s">
@@ -3389,11 +3381,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="35"/>
@@ -3419,7 +3410,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B50" s="31" t="s">
@@ -3431,11 +3422,11 @@
       <c r="D50" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="26">
         <v>1.0</v>
       </c>
       <c r="F50" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="35"/>
@@ -3461,7 +3452,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B51" s="31" t="s">
@@ -3473,11 +3464,11 @@
       <c r="D51" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="36">
-        <v>2.0</v>
+      <c r="E51" s="26">
+        <v>3.0</v>
       </c>
       <c r="F51" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G51" s="34"/>
       <c r="H51" s="35"/>
@@ -3503,7 +3494,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B52" s="31" t="s">
@@ -3516,11 +3507,10 @@
         <v>9</v>
       </c>
       <c r="E52" s="26">
-        <f>IF(D52&gt;0,COUNTIF(G52:Z52,"A"),"")</f>
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="F52" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G52" s="34"/>
       <c r="H52" s="35"/>
@@ -3546,7 +3536,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B53" s="31" t="s">
@@ -3558,11 +3548,11 @@
       <c r="D53" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="26">
         <v>2.0</v>
       </c>
       <c r="F53" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="35"/>
@@ -3588,7 +3578,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -3600,11 +3590,11 @@
       <c r="D54" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="26">
         <v>1.0</v>
       </c>
       <c r="F54" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="35"/>
@@ -3630,7 +3620,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B55" s="31" t="s">
@@ -3642,11 +3632,11 @@
       <c r="D55" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="26">
         <v>2.0</v>
       </c>
       <c r="F55" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="35"/>
@@ -3672,7 +3662,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -3684,11 +3674,11 @@
       <c r="D56" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="26">
         <v>2.0</v>
       </c>
       <c r="F56" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="35"/>
@@ -3714,7 +3704,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B57" s="31" t="s">
@@ -3726,11 +3716,11 @@
       <c r="D57" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="26">
         <v>1.0</v>
       </c>
       <c r="F57" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="35"/>
@@ -3756,7 +3746,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B58" s="31" t="s">
@@ -3768,11 +3758,11 @@
       <c r="D58" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="36">
-        <v>1.0</v>
+      <c r="E58" s="26">
+        <v>2.0</v>
       </c>
       <c r="F58" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="35"/>
@@ -3798,7 +3788,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B59" s="31" t="s">
@@ -3810,12 +3800,12 @@
       <c r="D59" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="40">
         <f>IF(D59&gt;0,COUNTIF(G59:Z59,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F59" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="35"/>
@@ -3841,7 +3831,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B60" s="31" t="s">
@@ -3853,11 +3843,11 @@
       <c r="D60" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="36">
-        <v>1.0</v>
+      <c r="E60" s="26">
+        <v>2.0</v>
       </c>
       <c r="F60" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G60" s="34"/>
       <c r="H60" s="35"/>
@@ -3883,7 +3873,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B61" s="31" t="s">
@@ -3895,11 +3885,11 @@
       <c r="D61" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="36">
-        <v>1.0</v>
+      <c r="E61" s="26">
+        <v>2.0</v>
       </c>
       <c r="F61" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G61" s="34"/>
       <c r="H61" s="35"/>
@@ -3924,23 +3914,23 @@
       <c r="AA61" s="35"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="37">
+      <c r="A62" s="36">
         <v>56.0</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="36">
+      <c r="D62" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="26">
         <v>2.0</v>
       </c>
       <c r="F62" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G62" s="34"/>
       <c r="H62" s="35"/>
@@ -3965,7 +3955,7 @@
       <c r="AA62" s="35"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="37">
+      <c r="A63" s="36">
         <v>57.0</v>
       </c>
       <c r="B63" s="31" t="s">
@@ -3977,11 +3967,11 @@
       <c r="D63" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="26">
         <v>2.0</v>
       </c>
       <c r="F63" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G63" s="34"/>
       <c r="H63" s="35"/>
@@ -4007,7 +3997,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30">
-        <f t="shared" ref="A64:A97" si="5">IF(B64&gt;0,A63+1,"")</f>
+        <f t="shared" ref="A64:A97" si="3">IF(B64&gt;0,A63+1,"")</f>
         <v>58</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -4019,11 +4009,11 @@
       <c r="D64" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="26">
         <v>2.0</v>
       </c>
       <c r="F64" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G64" s="34"/>
       <c r="H64" s="35"/>
@@ -4049,7 +4039,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B65" s="31" t="s">
@@ -4061,11 +4051,11 @@
       <c r="D65" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="26">
         <v>2.0</v>
       </c>
       <c r="F65" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G65" s="34"/>
       <c r="H65" s="35"/>
@@ -4091,7 +4081,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B66" s="31" t="s">
@@ -4103,11 +4093,11 @@
       <c r="D66" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="36">
-        <v>1.0</v>
+      <c r="E66" s="26">
+        <v>2.0</v>
       </c>
       <c r="F66" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G66" s="34"/>
       <c r="H66" s="35"/>
@@ -4133,7 +4123,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B67" s="31" t="s">
@@ -4145,11 +4135,11 @@
       <c r="D67" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="26">
         <v>2.0</v>
       </c>
       <c r="F67" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G67" s="34"/>
       <c r="H67" s="35"/>
@@ -4175,7 +4165,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B68" s="31" t="s">
@@ -4187,11 +4177,11 @@
       <c r="D68" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="26">
         <v>2.0</v>
       </c>
       <c r="F68" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G68" s="34"/>
       <c r="H68" s="35"/>
@@ -4217,7 +4207,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B69" s="31" t="s">
@@ -4229,11 +4219,11 @@
       <c r="D69" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="26">
         <v>2.0</v>
       </c>
       <c r="F69" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="35"/>
@@ -4259,7 +4249,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B70" s="31" t="s">
@@ -4271,8 +4261,8 @@
       <c r="D70" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="36">
-        <v>2.0</v>
+      <c r="E70" s="26">
+        <v>4.0</v>
       </c>
       <c r="F70" s="33">
         <v>6.0</v>
@@ -4301,7 +4291,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B71" s="31" t="s">
@@ -4313,11 +4303,11 @@
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="36">
-        <v>1.0</v>
+      <c r="E71" s="26">
+        <v>2.0</v>
       </c>
       <c r="F71" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="35"/>
@@ -4343,7 +4333,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B72" s="31" t="s">
@@ -4355,11 +4345,11 @@
       <c r="D72" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="26">
         <v>1.0</v>
       </c>
       <c r="F72" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G72" s="34"/>
       <c r="H72" s="35"/>
@@ -4385,7 +4375,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="B73" s="31" t="s">
@@ -4397,11 +4387,11 @@
       <c r="D73" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="36">
+      <c r="E73" s="26">
         <v>2.0</v>
       </c>
       <c r="F73" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
@@ -4427,7 +4417,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -4439,11 +4429,11 @@
       <c r="D74" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="26">
         <v>1.0</v>
       </c>
       <c r="F74" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="35"/>
@@ -4469,7 +4459,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B75" s="31" t="s">
@@ -4482,11 +4472,10 @@
         <v>9</v>
       </c>
       <c r="E75" s="26">
-        <f>IF(D75&gt;0,COUNTIF(G75:Z75,"A"),"")</f>
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="F75" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G75" s="34"/>
       <c r="H75" s="35"/>
@@ -4512,7 +4501,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B76" s="31" t="s">
@@ -4524,11 +4513,11 @@
       <c r="D76" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="36">
+      <c r="E76" s="26">
         <v>2.0</v>
       </c>
       <c r="F76" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G76" s="34"/>
       <c r="H76" s="35"/>
@@ -4554,7 +4543,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B77" s="31" t="s">
@@ -4566,11 +4555,11 @@
       <c r="D77" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="36">
+      <c r="E77" s="26">
         <v>4.0</v>
       </c>
       <c r="F77" s="33">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="35"/>
@@ -4596,7 +4585,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B78" s="31" t="s">
@@ -4608,11 +4597,11 @@
       <c r="D78" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="36">
+      <c r="E78" s="26">
         <v>2.0</v>
       </c>
       <c r="F78" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="35"/>
@@ -4638,7 +4627,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B79" s="31" t="s">
@@ -4651,11 +4640,10 @@
         <v>9</v>
       </c>
       <c r="E79" s="26">
-        <f t="shared" ref="E79:E80" si="6">IF(D79&gt;0,COUNTIF(G79:Z79,"A"),"")</f>
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="F79" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G79" s="34"/>
       <c r="H79" s="35"/>
@@ -4681,7 +4669,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B80" s="31" t="s">
@@ -4693,12 +4681,12 @@
       <c r="D80" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="26">
-        <f t="shared" si="6"/>
+      <c r="E80" s="40">
+        <f>IF(D80&gt;0,COUNTIF(G80:Z80,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F80" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G80" s="34"/>
       <c r="H80" s="35"/>
@@ -4724,7 +4712,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -4736,11 +4724,11 @@
       <c r="D81" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="36">
+      <c r="E81" s="26">
         <v>3.0</v>
       </c>
       <c r="F81" s="33">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="35"/>
@@ -4766,18 +4754,18 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26" t="str">
-        <f t="shared" ref="E82:E97" si="7">IF(D82&gt;0,COUNTIF(G82:Z82,"A"),"")</f>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40" t="str">
+        <f t="shared" ref="E82:E97" si="4">IF(D82&gt;0,COUNTIF(G82:Z82,"A"),"")</f>
         <v/>
       </c>
       <c r="F82" s="41" t="str">
-        <f t="shared" ref="F82:F97" si="8">IF(D82&gt;0,COUNTIF(G82:Z82,"P"),"")</f>
+        <f t="shared" ref="F82:F97" si="5">IF(D82&gt;0,COUNTIF(G82:Z82,"P"),"")</f>
         <v/>
       </c>
       <c r="G82" s="34"/>
@@ -4804,18 +4792,18 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F83" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G83" s="34"/>
@@ -4842,18 +4830,18 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F84" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G84" s="34"/>
@@ -4880,18 +4868,18 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F85" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G85" s="34"/>
@@ -4918,18 +4906,18 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B86" s="31"/>
       <c r="C86" s="32"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F86" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G86" s="34"/>
@@ -4956,18 +4944,18 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F87" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G87" s="34"/>
@@ -4994,18 +4982,18 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F88" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G88" s="34"/>
@@ -5032,18 +5020,18 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F89" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G89" s="34"/>
@@ -5070,18 +5058,18 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F90" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G90" s="34"/>
@@ -5108,18 +5096,18 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F91" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G91" s="34"/>
@@ -5146,18 +5134,18 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F92" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G92" s="34"/>
@@ -5184,18 +5172,18 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F93" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G93" s="34"/>
@@ -5222,18 +5210,18 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F94" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G94" s="34"/>
@@ -5260,18 +5248,18 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F95" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G95" s="34"/>
@@ -5298,18 +5286,18 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F96" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G96" s="34"/>
@@ -5336,18 +5324,18 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26" t="str">
-        <f t="shared" si="7"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F97" s="41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G97" s="34"/>
